--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1352619.455515418</v>
+        <v>-1355187.655794785</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>338.3517755722034</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7619254218788</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>57.3798388539102</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
         <v>384.0006094546493</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>141.4640390819152</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412182</v>
+        <v>14.65581357412179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.26664558937169</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0740557600978</v>
@@ -1433,10 +1433,10 @@
         <v>322.3198525186089</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>90.69422106945593</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124319</v>
+        <v>22.88997428091995</v>
       </c>
       <c r="S13" t="n">
         <v>162.8479091326377</v>
@@ -1591,7 +1591,7 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6635371532906</v>
@@ -1622,10 +1622,10 @@
         <v>384.0006094546493</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>219.2724757638237</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937169</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0740557600978</v>
@@ -1667,13 +1667,13 @@
         <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>12.79115616026553</v>
+        <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
         <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F16" t="n">
         <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01103647124319</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T16" t="n">
-        <v>192.627833077365</v>
+        <v>40.89383804004811</v>
       </c>
       <c r="U16" t="n">
         <v>259.2907220068087</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W16" t="n">
         <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>93.33419311559196</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222235</v>
+        <v>105.0172908271727</v>
       </c>
       <c r="U17" t="n">
         <v>177.0989191415053</v>
@@ -1904,10 +1904,10 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>163.0176837200233</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3416858386569</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917246</v>
+        <v>134.9529178109786</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5447634234373</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692407</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,7 +2056,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2065,7 +2065,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460839</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077913</v>
+        <v>11.09055406694696</v>
       </c>
       <c r="T20" t="n">
         <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>97.91638104432718</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9529178109783</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163151</v>
+        <v>154.5447634234377</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692407</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,7 +2293,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2321,19 +2321,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T23" t="n">
         <v>130.0217173222235</v>
@@ -2378,10 +2378,10 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692407</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2879804958512</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6526964587725</v>
+        <v>208.0679044405786</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
@@ -2539,7 +2539,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -3010,7 +3010,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.547861717998</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124559</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.314829203296</v>
+        <v>2027.318527059591</v>
       </c>
       <c r="C11" t="n">
-        <v>797.5453589283429</v>
+        <v>1685.549056784638</v>
       </c>
       <c r="D11" t="n">
-        <v>797.5453589283429</v>
+        <v>1354.476404843346</v>
       </c>
       <c r="E11" t="n">
-        <v>797.5453589283429</v>
+        <v>995.8811989105607</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425748</v>
+        <v>612.0883407864119</v>
       </c>
       <c r="G11" t="n">
-        <v>351.70652225303</v>
+        <v>224.2089372968674</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725595</v>
+        <v>81.3159685272561</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851405</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.3860687907</v>
+        <v>3016.170769741021</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516228112588</v>
+        <v>2712.300929062909</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.940619507933</v>
+        <v>2386.725320458254</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.667907912312</v>
+        <v>2386.725320458254</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.721622601959</v>
+        <v>2386.725320458254</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3291315370391</v>
+        <v>658.6418602042677</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3291315370391</v>
+        <v>516.8987239418195</v>
       </c>
       <c r="D13" t="n">
-        <v>326.7188072244573</v>
+        <v>516.8987239418195</v>
       </c>
       <c r="E13" t="n">
-        <v>326.7188072244573</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0219063920057</v>
+        <v>396.1786770248852</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>255.6688870650628</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>136.6447469483793</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.509788383022</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.872377806008</v>
+        <v>2117.388602240678</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1952.895764732963</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1758.322195967948</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.89615132438</v>
+        <v>1496.412375759051</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.404709783952</v>
+        <v>1268.920934218622</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1805864124502</v>
+        <v>1006.69681084712</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3840821798916</v>
+        <v>1006.69681084712</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7845497018202</v>
+        <v>813.0972783690486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1798.242789645728</v>
+        <v>1764.143437271415</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.242789645728</v>
+        <v>1764.143437271415</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.170137704437</v>
+        <v>1433.070785330123</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.574931771651</v>
+        <v>1074.475579397338</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7820736475023</v>
+        <v>690.6827212731889</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579575</v>
+        <v>302.8033177836442</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725593</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851405</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.3860687907</v>
+        <v>3099.268391548466</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516228112588</v>
+        <v>2795.398550870354</v>
       </c>
       <c r="W14" t="n">
-        <v>2520.595868354744</v>
+        <v>2469.822942265699</v>
       </c>
       <c r="X14" t="n">
-        <v>2520.595868354744</v>
+        <v>2123.550230670078</v>
       </c>
       <c r="Y14" t="n">
-        <v>2157.649583044391</v>
+        <v>2123.550230670078</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>587.4860836035889</v>
+        <v>571.5957931908947</v>
       </c>
       <c r="C16" t="n">
-        <v>445.7429473411407</v>
+        <v>429.8526569284465</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7429473411407</v>
+        <v>306.9290641815695</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7429473411407</v>
+        <v>186.2090172646351</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0460465086891</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5362565488669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5446,40 +5446,40 @@
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.443382110291</v>
+        <v>1872.072633187133</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.533561901394</v>
+        <v>1610.162812978236</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.042120360965</v>
+        <v>1382.671371437808</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.817996989463</v>
+        <v>1120.447248066306</v>
       </c>
       <c r="X16" t="n">
-        <v>935.5410342464411</v>
+        <v>919.6507438337469</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.9415017683698</v>
+        <v>726.0512113556757</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.373541454541</v>
+        <v>1544.16888924753</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.053704127661</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1054.430685134443</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="E17" t="n">
-        <v>743.2851121497305</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>406.9418869736549</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749797</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622764747551</v>
+        <v>3183.879761207199</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.734967634919</v>
+        <v>3004.991964094568</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.314759904881</v>
+        <v>2748.571756364529</v>
       </c>
       <c r="W17" t="n">
-        <v>2558.650432914958</v>
+        <v>2470.445780707947</v>
       </c>
       <c r="X17" t="n">
-        <v>2259.82735426741</v>
+        <v>2171.622702060399</v>
       </c>
       <c r="Y17" t="n">
-        <v>1944.33070190513</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1605877751699</v>
+        <v>632.1605877751704</v>
       </c>
       <c r="C19" t="n">
-        <v>537.867084460795</v>
+        <v>537.8670844607955</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3931246619914</v>
+        <v>462.3931246619917</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1227106931303</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8754428087519</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
         <v>1795.063565899911</v>
@@ -5704,7 +5704,7 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V19" t="n">
         <v>1253.43763422979</v>
@@ -5713,10 +5713,10 @@
         <v>1038.663143806361</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3162725218756</v>
+        <v>885.316272521876</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1663729918776</v>
+        <v>739.166372991878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232241</v>
+        <v>1855.314462232242</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1560.994624905363</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274313</v>
+        <v>966.2260329274319</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513564</v>
       </c>
       <c r="G20" t="n">
         <v>289.4530372098842</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5759,43 +5759,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749797</v>
+        <v>3314.403241743568</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747551</v>
+        <v>3183.068173741322</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.622764747551</v>
+        <v>3004.18037662869</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.717329349241</v>
+        <v>2747.760168898652</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.591353692659</v>
+        <v>2469.634193242069</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045111</v>
+        <v>2170.811114594521</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682831</v>
+        <v>1855.314462232242</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751699</v>
+        <v>632.1605877751704</v>
       </c>
       <c r="C22" t="n">
-        <v>537.867084460795</v>
+        <v>537.8670844607955</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619914</v>
+        <v>462.3931246619917</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650435</v>
+        <v>389.1227106931307</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806652</v>
+        <v>316.8754428087523</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
         <v>1795.063565899911</v>
@@ -5941,7 +5941,7 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
         <v>1253.43763422979</v>
@@ -5950,10 +5950,10 @@
         <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218756</v>
+        <v>885.316272521876</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918776</v>
+        <v>739.166372991878</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5972,43 @@
         <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875201</v>
+        <v>973.09139148752</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114447</v>
+        <v>636.7481663114446</v>
       </c>
       <c r="G23" t="n">
         <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512978</v>
+        <v>429.6622549716508</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411442</v>
+        <v>763.4816286614973</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110192889553</v>
+        <v>1214.515841909906</v>
       </c>
       <c r="M23" t="n">
-        <v>1851.985411331585</v>
+        <v>1748.047746581831</v>
       </c>
       <c r="N23" t="n">
-        <v>2398.764228390367</v>
+        <v>2294.826563640613</v>
       </c>
       <c r="O23" t="n">
-        <v>2901.736699269704</v>
+        <v>2797.79903451995</v>
       </c>
       <c r="P23" t="n">
-        <v>3296.511065626882</v>
+        <v>3192.573400877128</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.797427382564</v>
+        <v>3609.856683056816</v>
       </c>
       <c r="R23" t="n">
         <v>3668.873749613619</v>
@@ -6020,7 +6020,7 @@
         <v>3501.890692752</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639369</v>
+        <v>3323.002895639368</v>
       </c>
       <c r="V23" t="n">
         <v>3066.58268790933</v>
@@ -6060,28 +6060,28 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073444</v>
+        <v>92.38476659073442</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828907</v>
+        <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632378</v>
+        <v>405.3189434632368</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775903</v>
+        <v>772.0171037759022</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998219</v>
+        <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970728</v>
+        <v>2103.777751970727</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9802817071721</v>
+        <v>575.9802817071723</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927973</v>
+        <v>481.6867783927974</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939936</v>
+        <v>406.2128185939937</v>
       </c>
       <c r="E25" t="n">
         <v>332.9424046251326</v>
@@ -6142,7 +6142,7 @@
         <v>96.060472560395</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227238</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6151,10 +6151,10 @@
         <v>322.4872903880843</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365803</v>
+        <v>639.0470888365804</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361293</v>
+        <v>983.2041344361294</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
@@ -6163,34 +6163,34 @@
         <v>1623.942110062407</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496066</v>
+        <v>1856.549610496067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648581</v>
+        <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019641</v>
+        <v>1918.972129019642</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.883259831912</v>
+        <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
         <v>1591.759324014971</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.299136754146</v>
+        <v>1377.299136754147</v>
       </c>
       <c r="V25" t="n">
         <v>1197.257328161792</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383631</v>
+        <v>982.4828377383633</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538778</v>
+        <v>829.1359664538779</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238798</v>
+        <v>682.9860669238799</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1394.992678104633</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058813</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,28 +6464,28 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456137</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644868</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032356</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.55376099778</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246651</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572836</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6546,13 +6546,13 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6570,13 +6570,13 @@
         <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
         <v>1540.005790936169</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6686,61 +6686,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>792.1780824632691</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1776.744200383603</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803188</v>
@@ -6795,10 +6795,10 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,19 +6877,19 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871311</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q38" t="n">
-        <v>3977.401766380299</v>
+        <v>3979.725003735986</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,31 +7409,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2135.190356524676</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3015.155006854131</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P41" t="n">
-        <v>3728.510094301076</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3976.796456056758</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7549,16 +7549,16 @@
         <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7625,10 +7625,10 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
@@ -7637,52 +7637,52 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>792.178082463269</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383602</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442384</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960322</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886087</v>
+        <v>164.4450187886092</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592903</v>
+        <v>195.2094266592909</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419185</v>
+        <v>204.9000484419194</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526772</v>
+        <v>196.0014531526781</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740263</v>
+        <v>194.5125490740272</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201048</v>
+        <v>197.1426452201057</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561904</v>
+        <v>203.1061824561911</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567223</v>
+        <v>201.1836244567229</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485204</v>
+        <v>116.9502528485206</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814156</v>
+        <v>120.942342281416</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981494</v>
+        <v>115.83145879815</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072876</v>
+        <v>115.6174569072883</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775601</v>
+        <v>104.1233201775609</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951438</v>
+        <v>117.6967333951445</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175959</v>
+        <v>113.9903546175964</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213388</v>
+        <v>126.6229640213391</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218788</v>
+        <v>121.8405463218792</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274366</v>
+        <v>125.1725778274369</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466752</v>
+        <v>114.2593588466755</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419907</v>
+        <v>126.055282941991</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773781</v>
+        <v>127.1165875773784</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>274.0841553233412</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.703960024248</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>19.4031160254645</v>
       </c>
       <c r="M26" t="n">
-        <v>287.0017854473926</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.00178544739</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>78.40458911672741</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591467</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>19.40311602546558</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591512</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>21.13839585591558</v>
+        <v>18.79169145623253</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>342.9371040273959</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>21.74982042514783</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.13839585591421</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>274.835176366543</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>322.5750906889971</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>126.2226091066011</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.00013574995224</v>
+        <v>121.6943568194082</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103396</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>39.12106219032323</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.788539190233</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>48.41417242469262</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937168</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>309.5286963583433</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3168224572494</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103396</v>
+        <v>69.43130421103395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124319</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>151.733995037317</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.454346074641</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>25.00442649505074</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>112.327032179993</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>24.20095490383219</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>155.939624608411</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1309976.532194265</v>
+        <v>1309976.532194266</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1104681.617524638</v>
+        <v>1104681.617524639</v>
       </c>
     </row>
     <row r="6">
@@ -26314,19 +26314,19 @@
         <v>204819.0846792596</v>
       </c>
       <c r="C2" t="n">
-        <v>204819.3785882909</v>
+        <v>204819.378588291</v>
       </c>
       <c r="D2" t="n">
-        <v>204822.9770208398</v>
+        <v>204822.9770208397</v>
       </c>
       <c r="E2" t="n">
         <v>182385.4283532382</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.428353238</v>
+        <v>182385.4283532382</v>
       </c>
       <c r="G2" t="n">
-        <v>198632.9754454474</v>
+        <v>198632.9754454475</v>
       </c>
       <c r="H2" t="n">
         <v>198632.9754454475</v>
@@ -26335,25 +26335,25 @@
         <v>205260.4424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="K2" t="n">
+        <v>205260.4424660707</v>
+      </c>
+      <c r="L2" t="n">
         <v>205260.4424660708</v>
-      </c>
-      <c r="L2" t="n">
-        <v>205260.4424660707</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660705</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660705</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660704</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936434</v>
+        <v>38521.85015936321</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015502</v>
+        <v>1106215.961015503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071777</v>
+        <v>22820.53767071768</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049033</v>
+        <v>25410.3482204903</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.5682920731</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343053</v>
+        <v>422862.8573343056</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554748</v>
+        <v>38195.30988554744</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554743</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400181</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.1327915719</v>
+        <v>86759.1327915718</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409845</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="K4" t="n">
+        <v>82806.76150409839</v>
+      </c>
+      <c r="L4" t="n">
+        <v>82806.76150409834</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="N4" t="n">
+        <v>82806.76150409842</v>
+      </c>
+      <c r="O4" t="n">
         <v>82806.76150409837</v>
       </c>
-      <c r="L4" t="n">
-        <v>82806.76150409848</v>
-      </c>
-      <c r="M4" t="n">
-        <v>82806.76150409845</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409848</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>82806.76150409842</v>
-      </c>
-      <c r="P4" t="n">
-        <v>82806.76150409844</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058923</v>
+        <v>34688.2630805892</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911059</v>
       </c>
       <c r="F5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
         <v>85736.39714516663</v>
@@ -26494,10 +26494,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265082.3950399885</v>
+        <v>-265086.8086178567</v>
       </c>
       <c r="C6" t="n">
-        <v>-267474.7794737628</v>
+        <v>-267479.1901125405</v>
       </c>
       <c r="D6" t="n">
-        <v>-291249.9935534191</v>
+        <v>-291254.3682078707</v>
       </c>
       <c r="E6" t="n">
-        <v>-1038595.414426922</v>
+        <v>-1038824.164568051</v>
       </c>
       <c r="F6" t="n">
-        <v>67620.54658857998</v>
+        <v>67391.79644745185</v>
       </c>
       <c r="G6" t="n">
-        <v>5311.034367072512</v>
+        <v>5244.759696866352</v>
       </c>
       <c r="H6" t="n">
-        <v>42891.14366194661</v>
+        <v>42824.86899174039</v>
       </c>
       <c r="I6" t="n">
-        <v>9944.37485861445</v>
+        <v>9944.374858614639</v>
       </c>
       <c r="J6" t="n">
-        <v>7665.391066675627</v>
+        <v>7665.391066675831</v>
       </c>
       <c r="K6" t="n">
-        <v>33075.73928716635</v>
+        <v>33075.73928716619</v>
       </c>
       <c r="L6" t="n">
-        <v>-4504.370007707927</v>
+        <v>-4504.370007707723</v>
       </c>
       <c r="M6" t="n">
         <v>-174112.829004907</v>
       </c>
       <c r="N6" t="n">
-        <v>33075.73928716595</v>
+        <v>33075.7392871661</v>
       </c>
       <c r="O6" t="n">
-        <v>33075.73928716597</v>
+        <v>33075.73928716622</v>
       </c>
       <c r="P6" t="n">
-        <v>33075.73928716625</v>
+        <v>33075.7392871659</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859255</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179943</v>
+        <v>48.65426975179813</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034048</v>
+        <v>917.2184374034047</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855712</v>
+        <v>44.9804068585558</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841499</v>
+        <v>1041.1224308415</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111225</v>
+        <v>85.81698200111191</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520987</v>
+        <v>97.11802380520976</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661365</v>
+        <v>337.4716642661366</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403305</v>
+        <v>202.9352112403307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128222</v>
+        <v>137.5825701128225</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868719</v>
+        <v>204.5629472868721</v>
       </c>
       <c r="T8" t="n">
         <v>222.2396322140268</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451295</v>
+        <v>85.79346287451304</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805376</v>
+        <v>93.66019412805394</v>
       </c>
       <c r="S9" t="n">
         <v>169.73929532649</v>
@@ -28029,13 +28029,13 @@
         <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069476</v>
+        <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880812</v>
+        <v>87.15615952880829</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739111</v>
+        <v>12.07602350739138</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917267</v>
+        <v>78.81524851917287</v>
       </c>
       <c r="R10" t="n">
-        <v>173.348407472376</v>
+        <v>173.3484074723762</v>
       </c>
       <c r="S10" t="n">
         <v>222.4875777891985</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880417</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880414</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559055</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G19" t="n">
-        <v>11.48104483559089</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E22" t="n">
-        <v>11.48104483559084</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559055</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S25" t="n">
-        <v>11.48104483559069</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559061</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
         <v>46.97513661859255</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859344</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785905</v>
+        <v>0.1955950542785853</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630616</v>
+        <v>2.003137849630562</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075369</v>
+        <v>7.540678330075166</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807754</v>
+        <v>16.60088573807709</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438569028</v>
+        <v>24.88042438568961</v>
       </c>
       <c r="L8" t="n">
-        <v>30.8663665280687</v>
+        <v>30.86636652806787</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459558</v>
+        <v>34.34478007459466</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256463</v>
+        <v>34.9005145225637</v>
       </c>
       <c r="O8" t="n">
-        <v>32.9555662015819</v>
+        <v>32.95556620158101</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907919</v>
+        <v>28.12681329907843</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772716</v>
+        <v>21.12206541772659</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832752</v>
+        <v>12.28654782832719</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373387</v>
+        <v>4.457122299373267</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045305</v>
+        <v>0.8562173501045075</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228724</v>
+        <v>0.01564760434228682</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208516</v>
+        <v>0.1046525802208488</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711909</v>
+        <v>1.010723603711882</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902128</v>
+        <v>3.603169976902032</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146337</v>
+        <v>9.887373818146072</v>
       </c>
       <c r="K9" t="n">
-        <v>16.8990966929434</v>
+        <v>16.89909669294294</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172482</v>
+        <v>22.72292098172421</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473069</v>
+        <v>26.51657701472998</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577316</v>
+        <v>27.21839190577243</v>
       </c>
       <c r="O9" t="n">
-        <v>24.8995110493006</v>
+        <v>24.89951104929993</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673438</v>
+        <v>19.98405279673384</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468274</v>
+        <v>13.35881006468239</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589368</v>
+        <v>6.497640024589193</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347835</v>
+        <v>1.943875777347782</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386972043</v>
+        <v>0.421823338697193</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424451</v>
+        <v>0.006885038172424266</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914651</v>
+        <v>0.08773720774914415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878668</v>
+        <v>0.7800635379878459</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310697</v>
+        <v>2.638497120310627</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864658</v>
+        <v>6.203020587864491</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849175</v>
+        <v>10.19346831849147</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935948</v>
+        <v>13.04412995935913</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016848</v>
+        <v>13.75320612016811</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855804</v>
+        <v>13.42618561855768</v>
       </c>
       <c r="O10" t="n">
-        <v>12.4012555098521</v>
+        <v>12.40125550985176</v>
       </c>
       <c r="P10" t="n">
-        <v>10.6114164717695</v>
+        <v>10.61141647176921</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521714</v>
+        <v>7.346794732521516</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793441</v>
+        <v>3.944983904793335</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773762</v>
+        <v>1.529020247773721</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827168</v>
+        <v>0.3748771603827067</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226179</v>
+        <v>0.00478566587722605</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187035</v>
+        <v>72.49953281187037</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690024</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>813.0052711535677</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>421.4982648279675</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597807</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>474.9932304177967</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9229012776192</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36832,25 +36832,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776168</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204469</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>527.4262975833882</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813939</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>558.3242318556923</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>80.75159439813984</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887901</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,10 +37479,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637041</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>80.7515943981403</v>
+        <v>78.40488999845731</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>850.990104915615</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>81.36301896737255</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>358.3296824113146</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165966</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
